--- a/2015 Table 1.xlsx
+++ b/2015 Table 1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\raymo\DSF\G11\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E3DCC9F6-28A5-46D4-B4BD-C701FE13A0AD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52A86BF1-E03E-4CD3-A718-BC0C190E8CC4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="20292" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -97,7 +97,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="0_);\(0\)"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -150,11 +150,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -497,20 +497,20 @@
   <dimension ref="A1:I38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+      <selection activeCell="B2" sqref="B2:F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="50.33203125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="14.5546875" style="4" customWidth="1"/>
-    <col min="3" max="3" width="12.5546875" style="4" customWidth="1"/>
-    <col min="4" max="4" width="14.33203125" style="4" customWidth="1"/>
-    <col min="5" max="5" width="13.33203125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="14.33203125" style="4" customWidth="1"/>
-    <col min="7" max="7" width="9.109375" style="4"/>
-    <col min="8" max="8" width="8.88671875" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.109375" style="4"/>
+    <col min="1" max="1" width="50.33203125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="14.5546875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="12.5546875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="14.33203125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="13.33203125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="9.109375" style="3"/>
+    <col min="8" max="8" width="8.88671875" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.109375" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -537,19 +537,19 @@
       <c r="A2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="5">
         <v>3019</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="5">
         <v>1282823</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="5">
         <v>425</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2" s="5">
         <v>1053215</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F2" s="5">
         <v>349</v>
       </c>
     </row>
@@ -557,19 +557,19 @@
       <c r="A3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="5">
         <v>402</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="5">
         <v>113531</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="5">
         <v>282</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="5">
         <v>84004</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F3" s="5">
         <v>209</v>
       </c>
     </row>
@@ -577,19 +577,19 @@
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="5">
         <v>1170</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="5">
         <v>278515</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="5">
         <v>238</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="5">
         <v>212525</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="5">
         <v>182</v>
       </c>
     </row>
@@ -597,19 +597,19 @@
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="5">
         <v>816</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="5">
         <v>193589</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="5">
         <v>237</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="5">
         <v>132063</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="5">
         <v>162</v>
       </c>
     </row>
@@ -617,19 +617,19 @@
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="5">
         <v>2507</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="5">
         <v>750054</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="5">
         <v>299</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="5">
         <v>600095</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="5">
         <v>239</v>
       </c>
     </row>
@@ -637,19 +637,19 @@
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="5">
         <v>3251</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="5">
         <v>1013942</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="5">
         <v>312</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="5">
         <v>875400</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7" s="5">
         <v>269</v>
       </c>
     </row>
@@ -657,19 +657,19 @@
       <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8" s="5">
         <v>697</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="5">
         <v>154612</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="5">
         <v>222</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="5">
         <v>111907</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8" s="5">
         <v>161</v>
       </c>
     </row>
@@ -677,19 +677,19 @@
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9" s="5">
         <v>1262</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="5">
         <v>236476</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="5">
         <v>187</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="5">
         <v>202469</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F9" s="5">
         <v>160</v>
       </c>
     </row>
@@ -697,19 +697,19 @@
       <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10" s="5">
         <v>1699</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="5">
         <v>384039</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="5">
         <v>226</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10" s="5">
         <v>299808</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F10" s="5">
         <v>176</v>
       </c>
     </row>
@@ -717,19 +717,19 @@
       <c r="A11" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B11" s="5">
         <v>1672</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="5">
         <v>399734</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="5">
         <v>239</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E11" s="5">
         <v>323434</v>
       </c>
-      <c r="F11" s="3">
+      <c r="F11" s="5">
         <v>193</v>
       </c>
     </row>
@@ -737,19 +737,19 @@
       <c r="A12" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B12" s="5">
         <v>976</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12" s="5">
         <v>191720</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12" s="5">
         <v>197</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E12" s="5">
         <v>151994</v>
       </c>
-      <c r="F12" s="3">
+      <c r="F12" s="5">
         <v>156</v>
       </c>
     </row>
@@ -757,19 +757,19 @@
       <c r="A13" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B13" s="5">
         <v>824</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13" s="5">
         <v>156872</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D13" s="5">
         <v>190</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E13" s="5">
         <v>118758</v>
       </c>
-      <c r="F13" s="3">
+      <c r="F13" s="5">
         <v>144</v>
       </c>
     </row>
@@ -777,19 +777,19 @@
       <c r="A14" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="3">
+      <c r="B14" s="5">
         <v>1029</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C14" s="5">
         <v>227998</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="5">
         <v>221</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="5">
         <v>166005</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14" s="5">
         <v>161</v>
       </c>
     </row>
@@ -797,19 +797,19 @@
       <c r="A15" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="3">
+      <c r="B15" s="5">
         <v>1156</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C15" s="5">
         <v>285560</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15" s="5">
         <v>247</v>
       </c>
-      <c r="E15" s="3">
+      <c r="E15" s="5">
         <v>219680</v>
       </c>
-      <c r="F15" s="3">
+      <c r="F15" s="5">
         <v>190</v>
       </c>
     </row>
@@ -817,19 +817,19 @@
       <c r="A16" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="3">
+      <c r="B16" s="5">
         <v>1055</v>
       </c>
-      <c r="C16" s="3">
+      <c r="C16" s="5">
         <v>198438</v>
       </c>
-      <c r="D16" s="3">
+      <c r="D16" s="5">
         <v>188</v>
       </c>
-      <c r="E16" s="3">
+      <c r="E16" s="5">
         <v>170863</v>
       </c>
-      <c r="F16" s="3">
+      <c r="F16" s="5">
         <v>162</v>
       </c>
     </row>
@@ -837,19 +837,19 @@
       <c r="A17" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="3">
+      <c r="B17" s="5">
         <v>579</v>
       </c>
-      <c r="C17" s="3">
+      <c r="C17" s="5">
         <v>114745</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="5">
         <v>198</v>
       </c>
-      <c r="E17" s="3">
+      <c r="E17" s="5">
         <v>92243</v>
       </c>
-      <c r="F17" s="3">
+      <c r="F17" s="5">
         <v>159</v>
       </c>
     </row>
@@ -857,104 +857,104 @@
       <c r="A18" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B18" s="3">
+      <c r="B18" s="5">
         <v>616</v>
       </c>
-      <c r="C18" s="3">
+      <c r="C18" s="5">
         <v>85514</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="5">
         <v>139</v>
       </c>
-      <c r="E18" s="3">
+      <c r="E18" s="5">
         <v>68397</v>
       </c>
-      <c r="F18" s="3">
+      <c r="F18" s="5">
         <v>111</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-      <c r="E21" s="5"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="E21" s="4"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="G22" s="5"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="G22" s="4"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E23" s="5"/>
-      <c r="G23" s="5"/>
+      <c r="E23" s="4"/>
+      <c r="G23" s="4"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="H24" s="5"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="H24" s="4"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F25" s="5"/>
-      <c r="H25" s="5"/>
+      <c r="F25" s="4"/>
+      <c r="H25" s="4"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
-      <c r="H26" s="5"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="H26" s="4"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
-      <c r="G27" s="5"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="G27" s="4"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E28" s="5"/>
-      <c r="G28" s="5"/>
+      <c r="E28" s="4"/>
+      <c r="G28" s="4"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E29" s="5"/>
-      <c r="F29" s="5"/>
-      <c r="H29" s="5"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="H29" s="4"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E30" s="5"/>
-      <c r="F30" s="5"/>
-      <c r="H30" s="5"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="H30" s="4"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E31" s="5"/>
-      <c r="F31" s="5"/>
-      <c r="H31" s="5"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+      <c r="H31" s="4"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F32" s="5"/>
-      <c r="H32" s="5"/>
+      <c r="F32" s="4"/>
+      <c r="H32" s="4"/>
     </row>
     <row r="33" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="F33" s="5"/>
-      <c r="H33" s="5"/>
+      <c r="F33" s="4"/>
+      <c r="H33" s="4"/>
     </row>
     <row r="34" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="E34" s="5"/>
-      <c r="F34" s="5"/>
-      <c r="H34" s="5"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="4"/>
+      <c r="H34" s="4"/>
     </row>
     <row r="35" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="E35" s="5"/>
-      <c r="F35" s="5"/>
-      <c r="H35" s="5"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="4"/>
+      <c r="H35" s="4"/>
     </row>
     <row r="36" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D36" s="5"/>
-      <c r="E36" s="5"/>
-      <c r="G36" s="5"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="4"/>
+      <c r="G36" s="4"/>
     </row>
     <row r="37" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="E37" s="5"/>
-      <c r="G37" s="5"/>
+      <c r="E37" s="4"/>
+      <c r="G37" s="4"/>
     </row>
     <row r="38" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="G38" s="5"/>
-      <c r="I38" s="5"/>
+      <c r="G38" s="4"/>
+      <c r="I38" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
